--- a/Plantillas/lista.xlsx
+++ b/Plantillas/lista.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3B38F-D61B-48E4-ADC0-CFD6BF0D33B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F488F-E0D5-4BBB-9842-014B1758A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>FECHA</t>
   </si>
@@ -92,9 +92,6 @@
     <t>TD</t>
   </si>
   <si>
-    <t>NEUR</t>
-  </si>
-  <si>
     <t>DEMENCIA</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>DEMEN</t>
+  </si>
+  <si>
+    <t>Psi</t>
+  </si>
+  <si>
+    <t>HA SO</t>
   </si>
 </sst>
 </file>
@@ -480,98 +483,98 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="123" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -895,89 +898,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="34" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="28" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="34" t="s">
+      <c r="AN1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
@@ -990,8 +993,8 @@
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1002,41 +1005,41 @@
         <v>24</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="28"/>
       <c r="AC2" s="10">
         <v>1</v>
       </c>
@@ -1061,18 +1064,27 @@
       <c r="AJ2" s="12">
         <v>6</v>
       </c>
-      <c r="AK2" s="42">
+      <c r="AK2" s="13">
         <v>7</v>
       </c>
-      <c r="AL2" s="43">
+      <c r="AL2" s="14">
         <v>8</v>
       </c>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="35"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="21"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="AN1:AN2"/>
@@ -1082,15 +1094,6 @@
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/Plantillas/lista.xlsx
+++ b/Plantillas/lista.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F488F-E0D5-4BBB-9842-014B1758A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5F138D-1B23-485B-85FA-D4B16B5021B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>NOMBRES Y APELLIDOS</t>
   </si>
   <si>
-    <t>EDAD</t>
-  </si>
-  <si>
     <t>TIPO DE SEGURO</t>
   </si>
   <si>
@@ -120,13 +117,16 @@
   </si>
   <si>
     <t>HA SO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +145,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -199,14 +191,6 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -445,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,86 +443,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -561,20 +497,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="123" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -898,184 +873,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="30" t="s">
+      <c r="AB1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AN1" s="37" t="s">
         <v>16</v>
-      </c>
-      <c r="AN1" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="10">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="8">
         <v>1</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="9">
         <v>2</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="10">
         <v>1</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="10">
         <v>2</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="10">
         <v>3</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="10">
         <v>4</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="10">
         <v>5</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="10">
         <v>6</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="11">
         <v>7</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AL2" s="12">
         <v>8</v>
       </c>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="21"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AE1:AL1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:G1"/>
@@ -1085,15 +1069,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/Plantillas/lista.xlsx
+++ b/Plantillas/lista.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5F138D-1B23-485B-85FA-D4B16B5021B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F6DD4-4232-4E94-AF73-423F02E5781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>TAMIZAJE POSITIVO</t>
   </si>
   <si>
-    <t>DIAGNÓSTICO</t>
-  </si>
-  <si>
     <t>Nº CONSULTA PSICOLÓGICA</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>SEXO</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICOS</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -273,32 +273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -361,19 +335,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -423,54 +384,109 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,76 +495,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="123" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -857,10 +867,11 @@
     <col min="21" max="23" width="4.5546875" customWidth="1"/>
     <col min="24" max="24" width="4.6640625" customWidth="1"/>
     <col min="25" max="26" width="4.5546875" customWidth="1"/>
-    <col min="27" max="27" width="18" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" customWidth="1"/>
     <col min="29" max="29" width="4.5546875" customWidth="1"/>
-    <col min="30" max="31" width="4.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
     <col min="32" max="32" width="4.5546875" customWidth="1"/>
     <col min="33" max="33" width="4.6640625" customWidth="1"/>
     <col min="34" max="34" width="4.44140625" customWidth="1"/>
@@ -868,51 +879,52 @@
     <col min="36" max="36" width="4.44140625" customWidth="1"/>
     <col min="37" max="37" width="4.5546875" customWidth="1"/>
     <col min="38" max="38" width="4.6640625" customWidth="1"/>
-    <col min="39" max="39" width="30.44140625" customWidth="1"/>
-    <col min="40" max="40" width="15.5546875" customWidth="1"/>
+    <col min="39" max="40" width="4.5546875" customWidth="1"/>
+    <col min="41" max="41" width="30.44140625" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:42" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="37" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="31" t="s">
@@ -923,143 +935,147 @@
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="31"/>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AE1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AP1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:42" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="30"/>
+      <c r="U2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="10">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
-    <row r="2" spans="1:40" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AH2" s="10">
-        <v>4</v>
-      </c>
-      <c r="AI2" s="10">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>6</v>
-      </c>
-      <c r="AK2" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL2" s="12">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="38"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="L1:S1"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AE1:AL1"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AA1:AC2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:G1"/>
